--- a/Running projects/BAF Head Office/Final Bill (will be sent).xlsx
+++ b/Running projects/BAF Head Office/Final Bill (will be sent).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C205C0-1C8E-4560-AD53-BC493DC59034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C2CA6F-025F-4853-9636-99CFE47337DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Nut Bolts, Washers, Screws &amp; Ribits Need Stainless Steel required . </t>
   </si>
   <si>
-    <t>BOQ OF REPAIRING AND REPLACEMENT AND MAINTENANCE WORKS OF CHILLERS AND COOLING TOWERS OVERHAULING OF BA BUILDING KARACHI</t>
-  </si>
-  <si>
     <t>Evaporator Coil descaling internal and external with epoxy paint.</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t xml:space="preserve">SubTotal Amount </t>
   </si>
   <si>
-    <t>BOQ OF OVERHAULING, AND REPAIRING OF AIR HANDLING UNITS (AHU) 3rd Floor (A/B) BA BUILDING KARACHI</t>
-  </si>
-  <si>
     <t>03 Chillers, 06Nos circuit of Botzer Compressors, Existing Oil removed and supply and re-fill up new Oil (BSE170) Germany 210 Ltr including repaired of leakages, replacement of dryer core &amp; dryer, top-up Freon complete in respect.</t>
   </si>
   <si>
@@ -365,9 +359,6 @@
     <t>For Pioneer Services</t>
   </si>
   <si>
-    <t>RUNNING BILL NO 1</t>
-  </si>
-  <si>
     <t>Less 5.5% on Material Amount</t>
   </si>
   <si>
@@ -399,6 +390,15 @@
   </si>
   <si>
     <t>Remaining amount</t>
+  </si>
+  <si>
+    <t>FINAL BILL OF OVERHAULING, AND REPAIRING OF AIR HANDLING UNITS (AHU) 3rd Floor (A/B) BA BUILDING KARACHI</t>
+  </si>
+  <si>
+    <t>FINAL BILL OF REPAIRING AND REPLACEMENT AND MAINTENANCE WORKS OF CHILLERS AND COOLING TOWERS OVERHAULING OF BA BUILDING KARACHI</t>
+  </si>
+  <si>
+    <t>FINAL BILL</t>
   </si>
 </sst>
 </file>
@@ -966,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1244,6 +1244,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1288,21 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1798,7 +1795,7 @@
   <dimension ref="A10:H54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,14 +2126,14 @@
   <sheetData>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -2152,18 +2149,18 @@
     </row>
     <row r="13" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="16">
-        <v>45357</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2179,7 +2176,7 @@
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B16" s="92"/>
       <c r="C16" s="92"/>
@@ -2195,19 +2192,19 @@
     </row>
     <row r="18" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="C18" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="71" t="s">
         <v>15</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="67">
         <f>'Air Handling Unit'!G22</f>
@@ -2235,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="67">
         <f>Chillers!G15</f>
@@ -2255,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="69">
         <f>'Cooling Towers'!G18</f>
@@ -2273,7 +2270,7 @@
     <row r="22" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71"/>
       <c r="B22" s="76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="72">
         <f>SUM(C19:C21)</f>
@@ -2291,7 +2288,7 @@
     <row r="23" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71"/>
       <c r="B23" s="76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="72">
         <f t="shared" ref="C23:D23" si="0">C22*5%</f>
@@ -2309,7 +2306,7 @@
     <row r="24" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71"/>
       <c r="B24" s="76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="72">
         <f t="shared" ref="C24:D24" si="1">C22-C23</f>
@@ -2327,7 +2324,7 @@
     <row r="25" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73"/>
       <c r="B25" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="74">
         <v>0</v>
@@ -2344,7 +2341,7 @@
     <row r="26" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="73"/>
       <c r="B26" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="74">
         <f>C25+C24</f>
@@ -2360,34 +2357,31 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="110"/>
-      <c r="D27" s="111"/>
+      <c r="B27" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="95"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="74">
         <v>8969044.0500000007</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113"/>
+      <c r="B28" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="74">
         <v>11958725.600000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
+      <c r="B29" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="74">
         <f>E26-E27-E28</f>
         <v>8969043.8499999978</v>
@@ -2395,7 +2389,7 @@
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="94" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" s="94"/>
       <c r="C36" s="94"/>
@@ -2425,7 +2419,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C42" s="88">
         <f>C26*5.5%</f>
@@ -2436,7 +2430,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C43" s="88">
         <f>C26*5/118</f>
@@ -2452,7 +2446,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C45" s="88">
         <f>D26*11%</f>
@@ -2463,7 +2457,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" s="88">
         <f>D25*20%</f>
@@ -2479,7 +2473,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="88">
         <f>SUM(C42:C46)</f>
@@ -2495,7 +2489,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" s="88">
         <f>E26-C48</f>
@@ -2506,7 +2500,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C52" s="91">
         <f>C50</f>
@@ -2515,7 +2509,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2538,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2557,17 +2551,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="A1" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -2583,19 +2577,19 @@
         <v>3</v>
       </c>
       <c r="E2" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="H2" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>91</v>
-      </c>
       <c r="I2" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -2603,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="8">
         <v>50000</v>
@@ -2635,13 +2629,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8">
         <v>65000</v>
@@ -2667,13 +2661,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="8">
         <v>65000</v>
@@ -2699,13 +2693,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8">
         <v>130000</v>
@@ -2731,13 +2725,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>20000</v>
@@ -2763,13 +2757,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8">
         <v>25000</v>
@@ -2795,13 +2789,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="8">
         <v>35000</v>
@@ -2827,13 +2821,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="8">
         <v>30000</v>
@@ -2859,13 +2853,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="8">
         <v>340000</v>
@@ -2891,13 +2885,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="8">
         <v>95000</v>
@@ -2923,13 +2917,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="8">
         <v>90000</v>
@@ -2955,13 +2949,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8">
         <v>20000</v>
@@ -2987,13 +2981,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="8">
         <v>67000</v>
@@ -3019,13 +3013,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8">
         <v>45000</v>
@@ -3051,13 +3045,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="8">
         <v>15000</v>
@@ -3083,13 +3077,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="8">
         <v>80000</v>
@@ -3115,13 +3109,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" s="8">
         <v>10000</v>
@@ -3147,13 +3141,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="8">
         <v>10000</v>
@@ -3179,13 +3173,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="8">
         <v>30000</v>
@@ -3207,14 +3201,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
+      <c r="A22" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="78">
         <f>SUM(G3:G21)</f>
         <v>1319000</v>
@@ -3229,14 +3223,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
+      <c r="A23" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="65">
         <f>G22*5%</f>
         <v>65950</v>
@@ -3251,14 +3245,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
+      <c r="A24" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
       <c r="G24" s="65">
         <f>G22-G23</f>
         <v>1253050</v>
@@ -3273,14 +3267,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
+      <c r="A25" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="65">
         <v>0</v>
       </c>
@@ -3294,14 +3288,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
+      <c r="A26" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="65">
         <f>G25+G24</f>
         <v>1253050</v>
@@ -3360,14 +3354,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
+      <c r="A1" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -3383,10 +3377,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3394,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="55">
         <v>50000</v>
@@ -3415,13 +3409,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="56">
         <v>40000</v>
@@ -3436,13 +3430,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="56">
         <v>55000</v>
@@ -3457,13 +3451,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="56">
         <v>80000</v>
@@ -3484,7 +3478,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="56">
         <v>25000</v>
@@ -3505,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="56">
         <v>50000</v>
@@ -3520,13 +3514,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="56">
         <v>20000</v>
@@ -3541,13 +3535,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="56">
         <v>70000</v>
@@ -3562,13 +3556,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="56">
         <v>155000</v>
@@ -3589,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="57">
         <v>50000</v>
@@ -3600,12 +3594,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
+      <c r="A13" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="49"/>
       <c r="F13" s="54">
         <f>SUM(F3:F12)</f>
@@ -3613,26 +3607,26 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="A14" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="54">
         <f>F13*5%</f>
         <v>32500</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
+      <c r="A15" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="109"/>
       <c r="F15" s="54">
         <f>F13-F14</f>
         <v>617500</v>
@@ -3671,14 +3665,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="A2" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -3694,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3705,13 +3699,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="34">
         <v>4</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="58">
         <v>15000</v>
@@ -3726,13 +3720,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="55">
         <v>15000</v>
@@ -3747,13 +3741,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3">
         <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="55">
         <v>15000</v>
@@ -3768,13 +3762,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3">
         <v>4</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="56">
         <v>15000</v>
@@ -3789,13 +3783,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="56">
         <v>90000</v>
@@ -3816,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="57">
         <v>40000</v>
@@ -3827,12 +3821,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="A10" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="48"/>
       <c r="F10" s="47">
         <f>SUM(F2:F9)</f>
@@ -3840,26 +3834,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
+      <c r="A11" s="107" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
       <c r="F11" s="54">
         <f>F10*5%</f>
         <v>24500</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="103" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
+      <c r="A12" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="54">
         <f>F10-F11</f>
         <v>465500</v>
@@ -3882,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3900,17 +3894,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="A1" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -3926,25 +3920,25 @@
         <v>3</v>
       </c>
       <c r="E2" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="H2" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>91</v>
-      </c>
       <c r="I2" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="23" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="3"/>
@@ -3959,13 +3953,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="62">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="63">
         <v>1195000</v>
@@ -3992,13 +3986,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="62">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="63">
         <v>20000</v>
@@ -4025,13 +4019,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="62">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="63">
         <v>0</v>
@@ -4057,13 +4051,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="62">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="63">
         <v>250000</v>
@@ -4089,13 +4083,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="62">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="63">
         <v>215000</v>
@@ -4121,13 +4115,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="62">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="63">
         <v>15000</v>
@@ -4153,13 +4147,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="62">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="63"/>
       <c r="F10" s="63">
@@ -4183,13 +4177,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="62">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="63">
         <v>30000</v>
@@ -4221,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="63">
         <v>50000</v>
@@ -4247,13 +4241,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="64">
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="63">
         <v>40000</v>
@@ -4279,13 +4273,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="63">
         <v>40000</v>
@@ -4307,14 +4301,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
+      <c r="A15" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="59">
         <f>SUM(G4:G14)</f>
         <v>10390000</v>
@@ -4329,14 +4323,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
+      <c r="A16" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="65">
         <f>G15*5%</f>
         <v>519500</v>
@@ -4351,14 +4345,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
+      <c r="A17" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="65">
         <f>G15-G16</f>
         <v>9870500</v>
@@ -4373,14 +4367,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="A18" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="65">
         <v>0</v>
       </c>
@@ -4394,14 +4388,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
+      <c r="A19" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="65">
         <f>G18+G17</f>
         <v>9870500</v>
@@ -4459,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4490,25 +4484,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="H1" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>91</v>
-      </c>
       <c r="I1" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="3"/>
@@ -4523,13 +4517,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="8">
         <v>650000</v>
@@ -4555,13 +4549,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3">
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="8">
         <v>120000</v>
@@ -4587,13 +4581,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3">
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="8">
         <v>160000</v>
@@ -4619,13 +4613,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="8">
         <v>18000</v>
@@ -4651,13 +4645,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8">
         <v>2200000</v>
@@ -4683,13 +4677,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="8">
         <v>80000</v>
@@ -4715,13 +4709,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3">
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="8">
         <v>35000</v>
@@ -4747,13 +4741,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="8">
         <v>23000</v>
@@ -4779,13 +4773,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="3">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8">
         <v>18000</v>
@@ -4811,13 +4805,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8">
         <v>630000</v>
@@ -4843,13 +4837,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="8">
         <v>430000</v>
@@ -4875,13 +4869,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3">
         <v>3500</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="8">
         <v>300</v>
@@ -4907,13 +4901,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8">
         <v>50000</v>
@@ -4939,13 +4933,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8">
         <v>150000</v>
@@ -4971,13 +4965,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8">
         <v>10000</v>
@@ -4999,14 +4993,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
+      <c r="A18" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="59">
         <f t="shared" ref="G18:H18" si="3">SUM(G3:G17)</f>
         <v>15647000</v>
@@ -5021,14 +5015,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
+      <c r="A19" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="65">
         <f>G18*5%</f>
         <v>782350</v>
@@ -5043,14 +5037,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
+      <c r="A20" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="65">
         <f>G18-G19</f>
         <v>14864650</v>
@@ -5065,14 +5059,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
+      <c r="A21" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="65">
         <v>0</v>
       </c>
@@ -5086,14 +5080,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
+      <c r="A22" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="65">
         <f>G21+G20</f>
         <v>14864650</v>
